--- a/Excel_Data/Test_run.xlsx
+++ b/Excel_Data/Test_run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UIPL\git\Air_india_Test\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F7F97-E987-47FB-A949-DC2D4681FE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F38E8-33CD-4619-9B62-C983787576E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F0733AB-E36A-4572-8B7B-7B56BD3A74A9}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{7F0733AB-E36A-4572-8B7B-7B56BD3A74A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_test" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
